--- a/BackTest/2020-01-14 BackTest BHP.xlsx
+++ b/BackTest/2020-01-14 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1573,11 +1573,17 @@
         <v>6404.6595</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>947</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1616,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1653,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1690,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1727,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1764,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1801,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1838,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1871,17 @@
         <v>7370.8595</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>941</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1910,17 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>943</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1953,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1990,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2027,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2064,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2101,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2138,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2175,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2212,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2249,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2286,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2323,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2360,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2397,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2434,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2471,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2508,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2545,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2582,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2619,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2656,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2693,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2730,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2767,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2804,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2841,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2878,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2915,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2952,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2989,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3026,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3063,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3100,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3137,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3174,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3211,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3248,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3285,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3322,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3359,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3392,15 @@
         <v>10064.5808</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3429,15 @@
         <v>10060.0808</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3466,15 @@
         <v>10060.0808</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3503,15 @@
         <v>10239.0808</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3540,15 @@
         <v>10239.0808</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3577,15 @@
         <v>10239.0808</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3618,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3655,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3692,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3729,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3762,15 @@
         <v>10239.0808</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3799,15 @@
         <v>10239.0808</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3836,15 @@
         <v>10457.0808</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3873,15 @@
         <v>10457.0808</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3910,15 @@
         <v>10457.0808</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3947,15 @@
         <v>10457.0808</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3984,15 @@
         <v>10447.9808</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4021,15 @@
         <v>10439.5808</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4062,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4099,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4136,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4173,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4210,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4247,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4284,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4321,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4358,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4395,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4432,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4469,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4506,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4543,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4580,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4617,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4654,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4691,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4728,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4765,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4802,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4839,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4876,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4913,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4950,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4987,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5024,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5061,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5094,15 @@
         <v>15153.4008</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5135,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,14 +5168,16 @@
         <v>15468.4008</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -4807,7 +5203,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5236,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5269,7 @@
         <v>15462.8008</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5302,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5335,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5368,7 @@
         <v>15796.6289</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5401,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5434,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5467,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5500,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5533,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5566,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5599,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5632,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5665,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5698,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5731,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5764,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5797,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5830,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5863,7 @@
         <v>15893.5847</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5896,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5929,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5962,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5995,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +6028,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6061,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6094,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6127,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6160,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6193,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6226,7 @@
         <v>15875.8847</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6259,7 @@
         <v>16081.9847</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6292,7 @@
         <v>16078.7847</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6325,7 @@
         <v>16073.4847</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6358,7 @@
         <v>17066.3847</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6391,7 @@
         <v>17574.5847</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6424,7 @@
         <v>17571.3847</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6457,7 @@
         <v>16944.1847</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6490,7 @@
         <v>16944.1847</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6523,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6556,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6589,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6622,7 @@
         <v>17841.5874</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6655,7 @@
         <v>17841.5874</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6754,7 @@
         <v>18841.5874</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6787,7 @@
         <v>18841.5874</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6655,7 +7051,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7084,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +7183,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6985,7 +7381,7 @@
         <v>18845.4874</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8404,7 +8800,7 @@
         <v>20679.5874</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8635,7 +9031,7 @@
         <v>19857.8447</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9064,7 @@
         <v>19862.4447</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9097,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9130,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9163,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9196,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9229,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9262,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9295,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9328,7 @@
         <v>19851.54469999999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9361,7 @@
         <v>20141.34469999999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9394,7 @@
         <v>20125.64469999999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9427,7 @@
         <v>20125.64469999999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9460,7 @@
         <v>20125.64469999999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9493,7 @@
         <v>20360.64469999999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9526,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9559,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9592,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9625,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9658,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9691,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9724,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9757,7 @@
         <v>20172.94469999999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9790,7 @@
         <v>20166.34469999999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9823,7 @@
         <v>20154.34469999999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9856,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9889,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9922,7 @@
         <v>19327.47569999999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9955,7 @@
         <v>19321.67569999999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10912,7 +11308,7 @@
         <v>22100.57569999999</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11341,7 @@
         <v>22100.57569999999</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11374,7 @@
         <v>22100.57569999999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11308,7 +11704,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11737,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11440,7 +11836,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11935,7 +12331,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -18337,10 +18733,14 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>931</v>
+      </c>
+      <c r="J544" t="n">
+        <v>931</v>
+      </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
@@ -18370,11 +18770,19 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>931</v>
+      </c>
+      <c r="J545" t="n">
+        <v>931</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18811,19 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>931</v>
+      </c>
+      <c r="J546" t="n">
+        <v>931</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,10 +18852,14 @@
         <v>34194.7043</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>931</v>
+      </c>
+      <c r="J547" t="n">
+        <v>931</v>
+      </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
@@ -18469,15 +18889,19 @@
         <v>34194.7043</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>933</v>
       </c>
       <c r="J548" t="n">
-        <v>933</v>
-      </c>
-      <c r="K548" t="inlineStr"/>
+        <v>931</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,11 +18930,13 @@
         <v>34194.7043</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>933</v>
+      </c>
       <c r="J549" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -18548,14 +18974,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>933</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19310,10 +19730,14 @@
         <v>32146.27230000001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>931</v>
+      </c>
+      <c r="J573" t="n">
+        <v>931</v>
+      </c>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
@@ -19343,11 +19767,19 @@
         <v>32146.27230000001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>931</v>
+      </c>
+      <c r="J574" t="n">
+        <v>931</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19376,11 +19808,19 @@
         <v>32121.47230000001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>931</v>
+      </c>
+      <c r="J575" t="n">
+        <v>931</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19409,7 +19849,7 @@
         <v>32140.97230000001</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>929</v>
@@ -19446,9 +19886,11 @@
         <v>32137.67230000001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>930</v>
+      </c>
       <c r="J577" t="n">
         <v>929</v>
       </c>
@@ -19485,9 +19927,11 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>929</v>
+      </c>
       <c r="J578" t="n">
         <v>929</v>
       </c>
@@ -19524,7 +19968,7 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>931</v>
@@ -19600,7 +20044,7 @@
         <v>34041.07230000001</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>933</v>
@@ -19641,7 +20085,7 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>933</v>
@@ -19678,7 +20122,7 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>931</v>
@@ -19719,7 +20163,7 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>931</v>
@@ -19760,7 +20204,7 @@
         <v>34020.17230000001</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>931</v>
@@ -19797,7 +20241,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>929</v>
@@ -19838,7 +20282,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>930</v>
@@ -19879,10 +20323,14 @@
         <v>34032.3723</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>930</v>
+      </c>
+      <c r="J588" t="n">
+        <v>930</v>
+      </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
@@ -19912,11 +20360,19 @@
         <v>34032.3723</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>930</v>
+      </c>
+      <c r="J589" t="n">
+        <v>930</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19945,12 +20401,14 @@
         <v>34032.3723</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>930</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>930</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -19984,10 +20442,14 @@
         <v>34038.2723</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>930</v>
+      </c>
+      <c r="J591" t="n">
+        <v>930</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20021,10 +20483,14 @@
         <v>34022.4723</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>932</v>
+      </c>
+      <c r="J592" t="n">
+        <v>930</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,12 +20524,14 @@
         <v>33009.9723</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>930</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>930</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20097,12 +20565,14 @@
         <v>33009.9723</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>929</v>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>930</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20136,12 +20606,14 @@
         <v>33028.5723</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>929</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>930</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20175,10 +20647,14 @@
         <v>33028.5723</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>931</v>
+      </c>
+      <c r="J596" t="n">
+        <v>930</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20212,10 +20688,14 @@
         <v>33028.5723</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>931</v>
+      </c>
+      <c r="J597" t="n">
+        <v>930</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20249,12 +20729,14 @@
         <v>34258.8914</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>931</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>930</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20288,10 +20770,14 @@
         <v>34232.2914</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>935</v>
+      </c>
+      <c r="J599" t="n">
+        <v>930</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20325,10 +20811,14 @@
         <v>35198.4713</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>933</v>
+      </c>
+      <c r="J600" t="n">
+        <v>930</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20362,10 +20852,14 @@
         <v>35182.5713</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>935</v>
+      </c>
+      <c r="J601" t="n">
+        <v>930</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20399,10 +20893,14 @@
         <v>35182.5713</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>933</v>
+      </c>
+      <c r="J602" t="n">
+        <v>930</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,10 +20934,14 @@
         <v>35182.5713</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>933</v>
+      </c>
+      <c r="J603" t="n">
+        <v>930</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20473,10 +20975,14 @@
         <v>35199.37130000001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>933</v>
+      </c>
+      <c r="J604" t="n">
+        <v>930</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20513,7 +21019,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>930</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,7 +21058,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>930</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20587,7 +21097,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>930</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20624,7 +21136,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>930</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20661,7 +21175,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>930</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20698,7 +21214,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>930</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20735,7 +21253,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>930</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20772,7 +21292,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>930</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20809,7 +21331,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>930</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20846,7 +21370,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>930</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20883,7 +21409,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>930</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20920,7 +21448,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>930</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20957,7 +21487,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>930</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20994,7 +21526,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>930</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21031,7 +21565,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>930</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21068,7 +21604,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>930</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21105,7 +21643,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>930</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21142,7 +21682,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>930</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21179,7 +21721,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>930</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21216,7 +21760,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>930</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21253,7 +21799,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>930</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21290,7 +21838,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>930</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21324,12 +21874,12 @@
         <v>36408.37130000001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>931</v>
-      </c>
-      <c r="J627" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>930</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,7 +21916,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>930</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21403,7 +21955,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>930</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21440,7 +21994,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>930</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21474,12 +22030,12 @@
         <v>33892.61730000001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>929</v>
-      </c>
-      <c r="J631" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>930</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21513,12 +22069,12 @@
         <v>33892.61730000001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>931</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>930</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21552,12 +22108,12 @@
         <v>33892.61730000001</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>931</v>
-      </c>
-      <c r="J633" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>930</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21591,12 +22147,12 @@
         <v>34572.61730000001</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>931</v>
-      </c>
-      <c r="J634" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>930</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21630,12 +22186,12 @@
         <v>34572.61730000001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>933</v>
-      </c>
-      <c r="J635" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>930</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21669,12 +22225,12 @@
         <v>34572.61730000001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>933</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>930</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21708,12 +22264,12 @@
         <v>34572.61730000001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>933</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>930</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21747,12 +22303,12 @@
         <v>34572.61730000001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>933</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>930</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21786,12 +22342,14 @@
         <v>34570.3173</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>933</v>
       </c>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>930</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21825,12 +22383,12 @@
         <v>34570.3173</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>931</v>
-      </c>
-      <c r="J640" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>930</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21864,12 +22422,14 @@
         <v>34670.3173</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>931</v>
       </c>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>930</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21903,12 +22463,12 @@
         <v>34670.3173</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>933</v>
-      </c>
-      <c r="J642" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>930</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21945,7 +22505,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>930</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21982,7 +22544,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>930</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22019,7 +22583,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>930</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22056,7 +22622,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>930</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22093,7 +22661,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>930</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22130,7 +22700,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>930</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22167,7 +22739,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>930</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22204,7 +22778,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>930</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22241,7 +22817,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>930</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22278,7 +22856,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>930</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,7 +22895,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>930</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22352,7 +22934,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>930</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22389,7 +22973,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>930</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22426,7 +23012,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>930</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22463,7 +23051,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>930</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22500,7 +23090,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>930</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22537,7 +23129,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>930</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22574,7 +23168,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>930</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22611,7 +23207,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>930</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22648,7 +23246,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>930</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22685,7 +23285,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>930</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22722,7 +23324,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>930</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22759,7 +23363,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>930</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22796,7 +23402,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>930</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22833,7 +23441,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>930</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22870,7 +23480,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>930</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22907,7 +23519,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>930</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22944,7 +23558,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>930</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22981,7 +23597,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>930</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23018,7 +23636,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>930</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23055,7 +23675,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>930</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23092,7 +23714,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>930</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23129,7 +23753,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>930</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23166,7 +23792,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>930</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23203,7 +23831,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>930</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23240,7 +23870,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>930</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23277,7 +23909,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>930</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23314,7 +23948,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>930</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23351,7 +23987,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>930</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23388,7 +24026,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>930</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23425,7 +24065,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>930</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23462,7 +24104,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>930</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23499,7 +24143,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>930</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23536,7 +24182,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>930</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23573,7 +24221,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>930</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23610,7 +24260,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>930</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23647,7 +24299,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>930</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23684,7 +24338,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>930</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23721,7 +24377,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>930</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,7 +24416,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>930</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23795,7 +24455,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>930</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23832,7 +24494,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>930</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23869,7 +24533,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>930</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23906,7 +24572,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>930</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23943,7 +24611,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>930</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,7 +24650,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>930</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24017,7 +24689,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>930</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24054,7 +24728,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>930</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24091,7 +24767,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>930</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24128,7 +24806,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>930</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24165,7 +24845,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>930</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24202,7 +24884,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>930</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24239,7 +24923,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>930</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24276,7 +24962,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>930</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24313,7 +25001,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>930</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24350,7 +25040,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>930</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24387,7 +25079,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>930</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24424,7 +25118,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>930</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24461,7 +25157,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>930</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24498,7 +25196,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>930</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24535,7 +25235,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>930</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24572,7 +25274,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>930</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24609,7 +25313,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>930</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24646,7 +25352,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>930</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24683,7 +25391,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>930</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24720,7 +25430,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>930</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24757,7 +25469,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>930</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24794,7 +25508,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>930</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24831,7 +25547,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>930</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24868,7 +25586,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>930</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24905,7 +25625,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>930</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24942,7 +25664,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>930</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24979,7 +25703,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>930</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25016,7 +25742,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>930</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25053,7 +25781,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>930</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25090,7 +25820,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>930</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25127,7 +25859,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>930</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25164,7 +25898,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>930</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,7 +25937,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>930</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25238,7 +25976,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>930</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25275,7 +26015,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>930</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25312,7 +26054,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>930</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25349,7 +26093,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>930</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25386,7 +26132,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>930</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25423,7 +26171,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>930</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25460,7 +26210,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>930</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25497,7 +26249,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>930</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25534,7 +26288,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>930</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25571,7 +26327,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>930</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25608,7 +26366,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>930</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25645,7 +26405,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>930</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25682,7 +26444,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>930</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25719,7 +26483,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>930</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25756,7 +26522,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>930</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25793,7 +26561,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>930</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25830,7 +26600,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>930</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25867,7 +26639,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>930</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25904,7 +26678,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>930</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25941,7 +26717,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>930</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25978,7 +26756,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>930</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26015,7 +26795,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>930</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26052,7 +26834,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>930</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26089,7 +26873,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>930</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26126,7 +26912,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>930</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26163,7 +26951,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>930</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26200,7 +26990,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>930</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26237,7 +27029,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>930</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26274,7 +27068,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>930</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26311,7 +27107,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>930</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26348,7 +27146,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>930</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26385,7 +27185,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>930</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26422,7 +27224,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>930</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26459,7 +27263,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>930</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26496,7 +27302,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>930</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26533,7 +27341,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>930</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26570,7 +27380,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>930</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26607,7 +27419,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>930</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,7 +27458,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>930</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26681,7 +27497,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>930</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26718,7 +27536,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>930</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26755,7 +27575,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>930</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26792,7 +27614,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>930</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26829,7 +27653,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>930</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26866,7 +27692,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>930</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26903,7 +27731,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>930</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26940,7 +27770,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>930</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,7 +27809,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>930</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27014,7 +27848,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>930</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27051,7 +27887,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>930</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27088,7 +27926,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>930</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27122,16 +27962,20 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>930</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L783" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
       <c r="M783" t="inlineStr"/>
     </row>
     <row r="784">
@@ -27157,11 +28001,17 @@
         <v>42012.07279999999</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>930</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27190,11 +28040,17 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>930</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27223,11 +28079,17 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>930</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27256,11 +28118,17 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>930</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27289,11 +28157,17 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>930</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27325,8 +28199,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>930</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27358,8 +28238,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>930</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27391,8 +28277,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>930</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27424,8 +28316,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>930</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27457,8 +28355,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>930</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27487,11 +28391,17 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>930</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27520,11 +28430,17 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>930</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27553,11 +28469,17 @@
         <v>42399.454</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>930</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27589,8 +28511,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>930</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27622,8 +28550,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>930</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27655,8 +28589,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>930</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27688,8 +28628,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>930</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27721,8 +28667,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>930</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27754,8 +28706,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>930</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27787,8 +28745,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>930</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27820,8 +28784,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>930</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27853,8 +28823,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>930</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27886,8 +28862,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>930</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27919,8 +28901,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>930</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27949,11 +28937,17 @@
         <v>42399.454</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>930</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27985,8 +28979,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>930</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28018,8 +29018,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>930</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28048,11 +29054,17 @@
         <v>41703.15399999999</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>930</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28084,8 +29096,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>930</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28117,8 +29135,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>930</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28150,8 +29174,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>930</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28183,8 +29213,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>930</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28216,8 +29252,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>930</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28249,8 +29291,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>930</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28282,8 +29330,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>930</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28315,8 +29369,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>930</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28348,8 +29408,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>930</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28381,8 +29447,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>930</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28414,8 +29486,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>930</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28447,8 +29525,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>930</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28480,8 +29564,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>930</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28513,8 +29603,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>930</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28546,8 +29642,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>930</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28579,8 +29681,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>930</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28612,8 +29720,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>930</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28645,8 +29759,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>930</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28678,8 +29798,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>930</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28711,8 +29837,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>930</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28744,8 +29876,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>930</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28777,8 +29915,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>930</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28810,8 +29954,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>930</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28843,8 +29993,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>930</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28876,8 +30032,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>930</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28909,8 +30071,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>930</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28942,8 +30110,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>930</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28975,8 +30149,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>930</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29008,8 +30188,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>930</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29041,8 +30227,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>930</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29074,8 +30266,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>930</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29107,8 +30305,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>930</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29140,8 +30344,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>930</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29173,8 +30383,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>930</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29206,8 +30422,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>930</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29239,8 +30461,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>930</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29272,8 +30500,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>930</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29305,8 +30539,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>930</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29338,8 +30578,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>930</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29371,8 +30617,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>930</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29404,8 +30656,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>930</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29437,8 +30695,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>930</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29470,8 +30734,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>930</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29503,8 +30773,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>930</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29536,8 +30812,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>930</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29569,8 +30851,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>930</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29602,8 +30890,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>930</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29635,8 +30929,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>930</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29668,8 +30968,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>930</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29701,8 +31007,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>930</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29734,8 +31046,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>930</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29767,8 +31085,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>930</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29800,8 +31124,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>930</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29833,8 +31163,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>930</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29866,8 +31202,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>930</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29899,8 +31241,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>930</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29932,8 +31280,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>930</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29965,8 +31319,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>930</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29998,8 +31358,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>930</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30031,8 +31397,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>930</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30064,8 +31436,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>930</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30097,8 +31475,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>930</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30130,8 +31514,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>930</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30163,8 +31553,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>930</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30196,8 +31592,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>930</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30229,8 +31631,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>930</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30262,8 +31670,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>930</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30292,11 +31706,17 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>930</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30325,11 +31745,17 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>930</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30358,11 +31784,17 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>930</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30391,11 +31823,17 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>930</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30424,11 +31862,17 @@
         <v>47685.55399999999</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>930</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30460,8 +31904,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>930</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30490,11 +31940,17 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>930</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30523,11 +31979,17 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>930</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30556,11 +32018,17 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>930</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30589,11 +32057,17 @@
         <v>48158.85399999999</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>930</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30622,11 +32096,17 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>930</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30655,11 +32135,17 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>930</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30688,11 +32174,17 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>930</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30721,11 +32213,17 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>930</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30754,11 +32252,17 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>930</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30787,11 +32291,17 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>930</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30820,11 +32330,17 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>930</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30853,11 +32369,17 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>930</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30889,8 +32411,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>930</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30922,8 +32450,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>930</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30952,11 +32486,17 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>930</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30985,11 +32525,17 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>930</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31018,11 +32564,17 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>930</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31054,8 +32606,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>930</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31087,8 +32645,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>930</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31117,11 +32681,17 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>930</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31150,11 +32720,17 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>930</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31183,13 +32759,19 @@
         <v>48218.554</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>930</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L906" t="n">
-        <v>1</v>
+        <v>1.006827956989247</v>
       </c>
       <c r="M906" t="inlineStr"/>
     </row>
@@ -31843,7 +33425,7 @@
         <v>48220.15399999999</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32008,7 +33590,7 @@
         <v>48215.454</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32107,7 +33689,7 @@
         <v>49212.254</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32140,7 +33722,7 @@
         <v>49212.254</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32173,7 +33755,7 @@
         <v>49212.254</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32206,7 +33788,7 @@
         <v>49212.254</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32217,6 +33799,6 @@
       <c r="M937" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BHP.xlsx
+++ b/BackTest/2020-01-14 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3953.1595</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1573,17 +1573,11 @@
         <v>6404.6595</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1616,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1653,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1801,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1871,17 +1837,11 @@
         <v>7370.8595</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1910,17 +1870,11 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1953,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2064,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2138,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2360,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2393,15 +2299,15 @@
         <v>8162.7595</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>943</v>
+      </c>
+      <c r="J58" t="n">
+        <v>943</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2433,10 +2339,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>943</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2470,10 +2378,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>943</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2508,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2545,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2582,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2550,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2616,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2763,15 +2645,11 @@
         <v>8303.2698</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2804,11 +2682,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2715,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2748,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2781,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2814,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2985,15 +2843,15 @@
         <v>9275.6351</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>947</v>
+      </c>
+      <c r="J74" t="n">
+        <v>947</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3025,10 +2883,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>947</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3062,10 +2922,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>947</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3100,11 +2962,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2995,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +3028,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +3061,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3094,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3127,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3160,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3193,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3226,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3259,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3292,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3325,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3358,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3391,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3424,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3457,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3490,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3523,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3556,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3589,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3622,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3655,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3688,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3721,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3754,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3787,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3820,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3853,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3886,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +3919,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +3952,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +3985,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4018,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +4051,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +4084,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4117,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4150,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4183,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4216,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4249,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4282,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4315,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4348,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4381,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4414,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4447,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4480,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +4513,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4546,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4579,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +4612,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4645,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4678,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5061,11 +4711,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5098,11 +4744,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +4777,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5168,16 +4806,14 @@
         <v>15468.4008</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5203,7 +4839,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5236,7 +4872,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,7 +4905,7 @@
         <v>15462.8008</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5302,7 +4938,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5335,7 +4971,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5368,7 +5004,7 @@
         <v>15796.6289</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5401,7 +5037,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5434,7 +5070,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5467,7 +5103,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5500,7 +5136,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5533,7 +5169,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5566,7 +5202,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5599,7 +5235,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5632,7 +5268,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5665,7 +5301,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5698,7 +5334,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5731,7 +5367,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5764,7 +5400,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5797,7 +5433,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5830,7 +5466,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5863,7 +5499,7 @@
         <v>15893.5847</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5896,7 +5532,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5929,7 +5565,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5962,7 +5598,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5995,7 +5631,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,7 +5664,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6061,7 +5697,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6094,7 +5730,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6127,7 +5763,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6160,7 +5796,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6193,7 +5829,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6226,7 +5862,7 @@
         <v>15875.8847</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6259,7 +5895,7 @@
         <v>16081.9847</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6292,7 +5928,7 @@
         <v>16078.7847</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6325,7 +5961,7 @@
         <v>16073.4847</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6358,7 +5994,7 @@
         <v>17066.3847</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6391,7 +6027,7 @@
         <v>17574.5847</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6424,7 +6060,7 @@
         <v>17571.3847</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6457,7 +6093,7 @@
         <v>16944.1847</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6490,7 +6126,7 @@
         <v>16944.1847</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6523,7 +6159,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6556,7 +6192,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6589,7 +6225,7 @@
         <v>17884.1847</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6622,7 +6258,7 @@
         <v>17841.5874</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6655,7 +6291,7 @@
         <v>17841.5874</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6754,7 +6390,7 @@
         <v>18841.5874</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6787,7 +6423,7 @@
         <v>18841.5874</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7084,7 +6720,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7381,7 +7017,7 @@
         <v>18845.4874</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -9361,10 +8997,14 @@
         <v>20141.34469999999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>942</v>
+      </c>
+      <c r="J260" t="n">
+        <v>942</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9397,8 +9037,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>942</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>942</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9493,10 +9145,14 @@
         <v>20360.64469999999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>942</v>
+      </c>
+      <c r="J264" t="n">
+        <v>942</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9526,11 +9182,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>943</v>
+      </c>
+      <c r="J265" t="n">
+        <v>942</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9223,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>942</v>
+      </c>
+      <c r="J266" t="n">
+        <v>942</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9264,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>942</v>
+      </c>
+      <c r="J267" t="n">
+        <v>942</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9305,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>942</v>
+      </c>
+      <c r="J268" t="n">
+        <v>942</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9346,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>942</v>
+      </c>
+      <c r="J269" t="n">
+        <v>942</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9387,19 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>942</v>
+      </c>
+      <c r="J270" t="n">
+        <v>942</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>942</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>942</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>942</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>942</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9584,19 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>941</v>
+      </c>
+      <c r="J275" t="n">
+        <v>942</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9625,19 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>940.6</v>
+      </c>
+      <c r="J276" t="n">
+        <v>942</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9666,19 @@
         <v>19327.47569999999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>940.6</v>
+      </c>
+      <c r="J277" t="n">
+        <v>942</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9707,19 @@
         <v>19321.67569999999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>939</v>
+      </c>
+      <c r="J278" t="n">
+        <v>942</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9748,19 @@
         <v>19331.97569999999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>938</v>
+      </c>
+      <c r="J279" t="n">
+        <v>942</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +9789,19 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>939</v>
+      </c>
+      <c r="J280" t="n">
+        <v>942</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +9830,19 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>941</v>
+      </c>
+      <c r="J281" t="n">
+        <v>942</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +9871,19 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>941</v>
+      </c>
+      <c r="J282" t="n">
+        <v>942</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +9912,19 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>941</v>
+      </c>
+      <c r="J283" t="n">
+        <v>942</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +9956,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>942</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +9995,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>942</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10034,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>942</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10073,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>942</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10112,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>942</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10151,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>942</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10190,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>942</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10229,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>942</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10268,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>942</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10307,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>942</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10346,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>942</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10385,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>942</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>942</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10463,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>942</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10502,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>942</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +10541,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>942</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +10580,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>942</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +10619,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>942</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +10658,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>942</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +10697,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>942</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10813,13 +10733,19 @@
         <v>21256.07569999999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>942</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L304" t="n">
-        <v>1</v>
+        <v>0.9939384288747346</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
@@ -11440,7 +11366,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11473,7 +11399,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11506,7 +11432,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11539,7 +11465,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11572,7 +11498,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11605,7 +11531,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11638,7 +11564,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11704,7 +11630,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11737,7 +11663,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11770,7 +11696,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12265,7 +12191,7 @@
         <v>22502.27569999999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12496,7 +12422,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12529,7 +12455,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12562,7 +12488,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12595,7 +12521,7 @@
         <v>22791.67569999999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12628,7 +12554,7 @@
         <v>22810.67569999999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12661,7 +12587,7 @@
         <v>22795.57569999999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12694,7 +12620,7 @@
         <v>23398.57569999999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12925,7 +12851,7 @@
         <v>23381.67569999999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -18733,14 +18659,10 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>931</v>
-      </c>
-      <c r="J544" t="n">
-        <v>931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
@@ -18770,19 +18692,11 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>931</v>
-      </c>
-      <c r="J545" t="n">
-        <v>931</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18811,19 +18725,11 @@
         <v>33233.10430000001</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>931</v>
-      </c>
-      <c r="J546" t="n">
-        <v>931</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18852,14 +18758,10 @@
         <v>34194.7043</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>931</v>
-      </c>
-      <c r="J547" t="n">
-        <v>931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
@@ -18889,19 +18791,11 @@
         <v>34194.7043</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>933</v>
-      </c>
-      <c r="J548" t="n">
-        <v>931</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18930,19 +18824,11 @@
         <v>34194.7043</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>933</v>
-      </c>
-      <c r="J549" t="n">
-        <v>931</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19730,14 +19616,10 @@
         <v>32146.27230000001</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>931</v>
-      </c>
-      <c r="J573" t="n">
-        <v>931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
@@ -19767,19 +19649,11 @@
         <v>32146.27230000001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>931</v>
-      </c>
-      <c r="J574" t="n">
-        <v>931</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19808,19 +19682,11 @@
         <v>32121.47230000001</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>931</v>
-      </c>
-      <c r="J575" t="n">
-        <v>931</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19849,14 +19715,10 @@
         <v>32140.97230000001</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>929</v>
-      </c>
-      <c r="J576" t="n">
-        <v>929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
@@ -19886,19 +19748,11 @@
         <v>32137.67230000001</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>930</v>
-      </c>
-      <c r="J577" t="n">
-        <v>929</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19927,19 +19781,11 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>929</v>
-      </c>
-      <c r="J578" t="n">
-        <v>929</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19968,14 +19814,10 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>931</v>
-      </c>
-      <c r="J579" t="n">
-        <v>931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
@@ -20008,14 +19850,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>931</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20044,19 +19880,11 @@
         <v>34041.07230000001</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>933</v>
-      </c>
-      <c r="J581" t="n">
-        <v>931</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20085,14 +19913,10 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>933</v>
-      </c>
-      <c r="J582" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
@@ -20122,19 +19946,11 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>931</v>
-      </c>
-      <c r="J583" t="n">
-        <v>933</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20163,19 +19979,11 @@
         <v>34038.17230000001</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>931</v>
-      </c>
-      <c r="J584" t="n">
-        <v>933</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20204,14 +20012,10 @@
         <v>34020.17230000001</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>931</v>
-      </c>
-      <c r="J585" t="n">
-        <v>931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
@@ -20241,19 +20045,11 @@
         <v>34032.3723</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>929</v>
-      </c>
-      <c r="J586" t="n">
-        <v>931</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20282,19 +20078,11 @@
         <v>34032.3723</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>930</v>
-      </c>
-      <c r="J587" t="n">
-        <v>931</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20323,14 +20111,10 @@
         <v>34032.3723</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>930</v>
-      </c>
-      <c r="J588" t="n">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
@@ -20360,19 +20144,11 @@
         <v>34032.3723</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>930</v>
-      </c>
-      <c r="J589" t="n">
-        <v>930</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20401,19 +20177,11 @@
         <v>34032.3723</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>930</v>
-      </c>
-      <c r="J590" t="n">
-        <v>930</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20442,19 +20210,11 @@
         <v>34038.2723</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>930</v>
-      </c>
-      <c r="J591" t="n">
-        <v>930</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20483,19 +20243,11 @@
         <v>34022.4723</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>932</v>
-      </c>
-      <c r="J592" t="n">
-        <v>930</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20524,19 +20276,11 @@
         <v>33009.9723</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>930</v>
-      </c>
-      <c r="J593" t="n">
-        <v>930</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20565,19 +20309,11 @@
         <v>33009.9723</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>929</v>
-      </c>
-      <c r="J594" t="n">
-        <v>930</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20606,19 +20342,11 @@
         <v>33028.5723</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>929</v>
-      </c>
-      <c r="J595" t="n">
-        <v>930</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20647,19 +20375,11 @@
         <v>33028.5723</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>931</v>
-      </c>
-      <c r="J596" t="n">
-        <v>930</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20688,19 +20408,11 @@
         <v>33028.5723</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>931</v>
-      </c>
-      <c r="J597" t="n">
-        <v>930</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20729,19 +20441,11 @@
         <v>34258.8914</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>931</v>
-      </c>
-      <c r="J598" t="n">
-        <v>930</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20770,19 +20474,11 @@
         <v>34232.2914</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>935</v>
-      </c>
-      <c r="J599" t="n">
-        <v>930</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20811,19 +20507,11 @@
         <v>35198.4713</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>933</v>
-      </c>
-      <c r="J600" t="n">
-        <v>930</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20852,19 +20540,11 @@
         <v>35182.5713</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>935</v>
-      </c>
-      <c r="J601" t="n">
-        <v>930</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20893,19 +20573,11 @@
         <v>35182.5713</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>933</v>
-      </c>
-      <c r="J602" t="n">
-        <v>930</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20934,19 +20606,11 @@
         <v>35182.5713</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>933</v>
-      </c>
-      <c r="J603" t="n">
-        <v>930</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20975,19 +20639,11 @@
         <v>35199.37130000001</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>933</v>
-      </c>
-      <c r="J604" t="n">
-        <v>930</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21019,14 +20675,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>930</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21058,14 +20708,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>930</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21097,14 +20741,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>930</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21136,14 +20774,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>930</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21175,14 +20807,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>930</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21214,14 +20840,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>930</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21253,14 +20873,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>930</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21292,14 +20906,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>930</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21331,14 +20939,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>930</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21370,14 +20972,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>930</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21409,14 +21005,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>930</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21448,14 +21038,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>930</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21487,14 +21071,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>930</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21526,14 +21104,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>930</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21565,14 +21137,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>930</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21604,14 +21170,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>930</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21643,14 +21203,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>930</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21682,14 +21236,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>930</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21721,14 +21269,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>930</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21760,14 +21302,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>930</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21799,14 +21335,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>930</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21838,14 +21368,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>930</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21877,14 +21401,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>930</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21916,14 +21434,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>930</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21955,14 +21467,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>930</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21994,14 +21500,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>930</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22033,14 +21533,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>930</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22072,14 +21566,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>930</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22111,14 +21599,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>930</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22150,14 +21632,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>930</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22189,14 +21665,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>930</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22228,14 +21698,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>930</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22267,14 +21731,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>930</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22306,14 +21764,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>930</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22342,19 +21794,11 @@
         <v>34570.3173</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>933</v>
-      </c>
-      <c r="J639" t="n">
-        <v>930</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22386,14 +21830,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>930</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22422,19 +21860,11 @@
         <v>34670.3173</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>931</v>
-      </c>
-      <c r="J641" t="n">
-        <v>930</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22466,14 +21896,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>930</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22505,14 +21929,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>930</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22544,14 +21962,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>930</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22583,14 +21995,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>930</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22622,14 +22028,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>930</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22661,14 +22061,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>930</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22700,14 +22094,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>930</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22739,14 +22127,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>930</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22778,14 +22160,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>930</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22817,14 +22193,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>930</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22856,14 +22226,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>930</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22895,14 +22259,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>930</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22934,14 +22292,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>930</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22973,14 +22325,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>930</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23012,14 +22358,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>930</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23051,14 +22391,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>930</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23090,14 +22424,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>930</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23129,14 +22457,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>930</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23168,14 +22490,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>930</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23207,14 +22523,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>930</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23246,14 +22556,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>930</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23285,14 +22589,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>930</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23324,14 +22622,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>930</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23363,14 +22655,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>930</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23402,14 +22688,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>930</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23441,14 +22721,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>930</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23480,14 +22754,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>930</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23519,14 +22787,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>930</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23558,14 +22820,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>930</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23597,14 +22853,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>930</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23636,14 +22886,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>930</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23675,14 +22919,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>930</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23711,17 +22949,11 @@
         <v>35991.6173</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>930</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23750,17 +22982,11 @@
         <v>35991.6173</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>930</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23789,17 +23015,11 @@
         <v>35991.6173</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>930</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23828,17 +23048,11 @@
         <v>35991.6173</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>930</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23867,17 +23081,11 @@
         <v>35991.6173</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>930</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23906,17 +23114,11 @@
         <v>36192.7728</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>930</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23945,17 +23147,11 @@
         <v>36192.7728</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>930</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23984,17 +23180,11 @@
         <v>36189.6728</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>930</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24023,17 +23213,11 @@
         <v>36185.8728</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>930</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24062,17 +23246,11 @@
         <v>36185.8728</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>930</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24101,17 +23279,11 @@
         <v>36179.9728</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>930</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24140,17 +23312,11 @@
         <v>36179.9728</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>930</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24179,17 +23345,11 @@
         <v>36175.4728</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>930</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24221,14 +23381,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>930</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24260,14 +23414,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>930</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24299,14 +23447,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>930</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24338,14 +23480,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>930</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24377,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>930</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24416,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>930</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24455,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>930</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24494,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>930</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24533,14 +23645,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>930</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24572,14 +23678,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>930</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24611,14 +23711,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>930</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24650,14 +23744,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>930</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24689,14 +23777,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>930</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24728,14 +23810,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>930</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24767,14 +23843,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>930</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24806,14 +23876,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>930</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24845,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>930</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24884,14 +23942,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>930</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24923,14 +23975,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>930</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24962,14 +24008,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>930</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25001,14 +24041,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>930</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25040,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>930</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25079,14 +24107,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>930</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25118,14 +24140,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>930</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25157,14 +24173,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>930</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25196,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>930</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25235,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>930</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25274,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>930</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25313,14 +24305,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>930</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25352,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>930</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25391,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>930</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25430,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>930</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25469,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>930</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25508,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>930</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25547,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>930</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25586,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>930</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25625,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>930</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25664,14 +24602,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>930</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25703,14 +24635,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>930</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25742,14 +24668,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>930</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25781,14 +24701,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>930</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25820,14 +24734,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>930</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25859,14 +24767,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>930</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25898,14 +24800,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>930</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25937,14 +24833,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>930</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25976,14 +24866,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>930</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26015,14 +24899,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>930</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26054,14 +24932,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>930</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26093,14 +24965,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>930</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26132,14 +24998,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>930</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26171,14 +25031,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>930</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26210,14 +25064,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>930</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26249,14 +25097,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>930</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26288,14 +25130,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>930</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26327,14 +25163,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>930</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26366,14 +25196,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>930</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26405,14 +25229,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>930</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26441,17 +25259,11 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>930</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26480,17 +25292,11 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>930</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26519,17 +25325,11 @@
         <v>41064.67279999999</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>930</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26558,17 +25358,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>930</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26597,17 +25391,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>930</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26636,17 +25424,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>930</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26675,17 +25457,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>930</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26714,17 +25490,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>930</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26753,17 +25523,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>930</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26792,17 +25556,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>930</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26831,17 +25589,11 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>930</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26870,17 +25622,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>930</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26909,17 +25655,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>930</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26948,17 +25688,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>930</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26987,17 +25721,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>930</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27026,17 +25754,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>930</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27065,17 +25787,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>930</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27104,17 +25820,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>930</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27143,17 +25853,11 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>930</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27182,17 +25886,11 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>930</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27221,17 +25919,11 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>930</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27260,17 +25952,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>930</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27299,17 +25985,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>930</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27338,17 +26018,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>930</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27377,17 +26051,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>930</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27416,17 +26084,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>930</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27455,17 +26117,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>930</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27494,17 +26150,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>930</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27533,17 +26183,11 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>930</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27572,17 +26216,11 @@
         <v>41427.27279999999</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>930</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27614,14 +26252,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>930</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27650,17 +26282,11 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>930</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27689,17 +26315,11 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>930</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27728,17 +26348,11 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>930</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27770,14 +26384,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>930</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27806,17 +26414,11 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>930</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27845,17 +26447,11 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>930</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27884,17 +26480,11 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>930</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27923,17 +26513,11 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>930</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27962,17 +26546,11 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>930</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28001,17 +26579,11 @@
         <v>42012.07279999999</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>930</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28040,17 +26612,11 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>930</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28079,17 +26645,11 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>930</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28118,17 +26678,11 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>930</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28157,17 +26711,11 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>930</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28196,17 +26744,11 @@
         <v>42393.45399999999</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>930</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28235,17 +26777,11 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>930</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28274,17 +26810,11 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>930</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28313,17 +26843,11 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>930</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28352,17 +26876,11 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>930</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28391,17 +26909,11 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>930</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28430,17 +26942,11 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>930</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28469,17 +26975,11 @@
         <v>42399.454</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>930</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28508,17 +27008,11 @@
         <v>42399.454</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>930</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28547,17 +27041,11 @@
         <v>42399.454</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>930</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28586,17 +27074,11 @@
         <v>42399.454</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>930</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28625,17 +27107,11 @@
         <v>42399.454</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>930</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28667,14 +27143,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>930</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28706,14 +27176,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>930</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28742,17 +27206,11 @@
         <v>42399.454</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>930</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28784,14 +27242,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>930</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28823,14 +27275,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>930</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28862,14 +27308,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>930</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28901,14 +27341,8 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>930</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28940,14 +27374,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>930</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28979,14 +27407,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>930</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29018,14 +27440,8 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>930</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29057,14 +27473,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>930</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29096,14 +27506,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>930</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29135,14 +27539,8 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>930</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29174,14 +27572,8 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>930</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29213,14 +27605,8 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>930</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29252,14 +27638,8 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>930</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29291,14 +27671,8 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>930</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29330,14 +27704,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>930</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29369,14 +27737,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>930</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29408,14 +27770,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>930</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29447,14 +27803,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>930</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29486,14 +27836,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>930</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29525,14 +27869,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>930</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29564,14 +27902,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>930</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29603,14 +27935,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>930</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29642,14 +27968,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>930</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29681,14 +28001,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>930</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29720,14 +28034,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>930</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29759,14 +28067,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>930</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29798,14 +28100,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>930</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29837,14 +28133,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>930</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29876,14 +28166,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>930</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29915,14 +28199,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>930</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29954,14 +28232,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>930</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29993,14 +28265,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>930</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30032,14 +28298,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>930</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30071,14 +28331,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>930</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30110,14 +28364,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>930</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30149,14 +28397,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>930</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30188,14 +28430,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>930</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30227,14 +28463,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>930</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30266,14 +28496,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>930</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30305,14 +28529,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>930</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30344,14 +28562,8 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>930</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30383,14 +28595,8 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>930</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30422,14 +28628,8 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>930</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30461,14 +28661,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>930</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30500,14 +28694,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>930</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30539,14 +28727,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>930</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30578,14 +28760,8 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>930</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30617,14 +28793,8 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>930</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30656,14 +28826,8 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>930</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30695,14 +28859,8 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>930</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30734,14 +28892,8 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>930</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30773,14 +28925,8 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>930</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30812,14 +28958,8 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>930</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30851,14 +28991,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>930</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30890,14 +29024,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>930</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30929,14 +29057,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>930</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30968,14 +29090,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>930</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31007,14 +29123,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>930</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31043,17 +29153,11 @@
         <v>45903.35399999999</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>930</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31082,17 +29186,11 @@
         <v>46233.35399999999</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>930</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31121,17 +29219,11 @@
         <v>46229.05399999999</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>930</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31160,17 +29252,11 @@
         <v>46215.55399999999</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>930</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31199,17 +29285,11 @@
         <v>46672.16119999999</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>930</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31238,17 +29318,11 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>930</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31277,17 +29351,11 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>930</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31316,17 +29384,11 @@
         <v>46654.26119999999</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>930</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31355,17 +29417,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>930</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31394,17 +29450,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>930</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31433,17 +29483,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>930</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31472,17 +29516,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>930</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31511,17 +29549,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>930</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31550,17 +29582,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>930</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31589,17 +29615,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>930</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31628,17 +29648,11 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>930</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31667,17 +29681,11 @@
         <v>48277.25399999999</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>930</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31706,17 +29714,11 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>930</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31745,17 +29747,11 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>930</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31784,17 +29780,11 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>930</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31823,17 +29813,11 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>930</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31862,17 +29846,11 @@
         <v>47685.55399999999</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>930</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31901,17 +29879,11 @@
         <v>47698.95399999999</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>930</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31940,17 +29912,11 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>930</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31979,17 +29945,11 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>930</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32018,17 +29978,11 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>930</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32057,17 +30011,11 @@
         <v>48158.85399999999</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>930</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32096,17 +30044,11 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>930</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32135,17 +30077,11 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>930</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32174,17 +30110,11 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>930</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32213,17 +30143,11 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>930</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32252,17 +30176,11 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>930</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32291,17 +30209,11 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>930</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32330,17 +30242,11 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>930</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32369,17 +30275,11 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>930</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32408,17 +30308,11 @@
         <v>48230.15399999999</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>930</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32447,17 +30341,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>930</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32486,17 +30374,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>930</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32525,17 +30407,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>930</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32564,17 +30440,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>930</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32603,17 +30473,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>930</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32642,17 +30506,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>930</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32681,17 +30539,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>930</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32720,17 +30572,11 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>930</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32762,16 +30608,10 @@
         <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>930</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
-        <v>1.006827956989247</v>
+        <v>1</v>
       </c>
       <c r="M906" t="inlineStr"/>
     </row>
@@ -32798,7 +30638,7 @@
         <v>48218.554</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32831,7 +30671,7 @@
         <v>48218.554</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33799,6 +31639,6 @@
       <c r="M937" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BHP.xlsx
+++ b/BackTest/2020-01-14 BackTest BHP.xlsx
@@ -484,10 +484,14 @@
         <v>4653.1595</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>948</v>
+      </c>
+      <c r="J3" t="n">
+        <v>948</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>948</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>948</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>949</v>
+      </c>
+      <c r="J6" t="n">
+        <v>948</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>949</v>
+      </c>
+      <c r="J7" t="n">
+        <v>948</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>949</v>
+      </c>
+      <c r="J8" t="n">
+        <v>948</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>949</v>
+      </c>
+      <c r="J9" t="n">
+        <v>948</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>949</v>
+      </c>
+      <c r="J10" t="n">
+        <v>948</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>949</v>
+      </c>
+      <c r="J11" t="n">
+        <v>948</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>949</v>
+      </c>
+      <c r="J12" t="n">
+        <v>948</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>4653.1595</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>949</v>
+      </c>
+      <c r="J13" t="n">
+        <v>948</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>4861.9595</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>949</v>
+      </c>
+      <c r="J14" t="n">
+        <v>948</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>4861.9595</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>951</v>
+      </c>
+      <c r="J15" t="n">
+        <v>948</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>951</v>
+      </c>
+      <c r="J16" t="n">
+        <v>948</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>949</v>
+      </c>
+      <c r="J17" t="n">
+        <v>948</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>949</v>
+      </c>
+      <c r="J18" t="n">
+        <v>948</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>949</v>
+      </c>
+      <c r="J19" t="n">
+        <v>948</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>949</v>
+      </c>
+      <c r="J20" t="n">
+        <v>948</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>949</v>
+      </c>
+      <c r="J21" t="n">
+        <v>948</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>949</v>
+      </c>
+      <c r="J22" t="n">
+        <v>948</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>949</v>
+      </c>
+      <c r="J23" t="n">
+        <v>948</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>4852.9595</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>949</v>
+      </c>
+      <c r="J24" t="n">
+        <v>948</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>4849.2595</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>949</v>
+      </c>
+      <c r="J25" t="n">
+        <v>948</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>4849.2595</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>947</v>
+      </c>
+      <c r="J26" t="n">
+        <v>948</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>5360.8595</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>947</v>
+      </c>
+      <c r="J27" t="n">
+        <v>948</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1505,19 @@
         <v>6160.8595</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>948</v>
+      </c>
+      <c r="J28" t="n">
+        <v>948</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1546,19 @@
         <v>6160.8595</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>949</v>
+      </c>
+      <c r="J29" t="n">
+        <v>948</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1587,19 @@
         <v>6160.8595</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>949</v>
+      </c>
+      <c r="J30" t="n">
+        <v>948</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1628,19 @@
         <v>6154.0595</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>949</v>
+      </c>
+      <c r="J31" t="n">
+        <v>948</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1669,19 @@
         <v>6154.0595</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>947</v>
+      </c>
+      <c r="J32" t="n">
+        <v>948</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1710,19 @@
         <v>6154.0595</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>947</v>
+      </c>
+      <c r="J33" t="n">
+        <v>948</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1751,19 @@
         <v>6146.9595</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>947</v>
+      </c>
+      <c r="J34" t="n">
+        <v>948</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1792,19 @@
         <v>6246.9595</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>945</v>
+      </c>
+      <c r="J35" t="n">
+        <v>948</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1833,19 @@
         <v>6404.6595</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>947</v>
+      </c>
+      <c r="J36" t="n">
+        <v>948</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1874,19 @@
         <v>6404.6595</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>949</v>
+      </c>
+      <c r="J37" t="n">
+        <v>948</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1915,19 @@
         <v>6404.6595</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>949</v>
+      </c>
+      <c r="J38" t="n">
+        <v>948</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1956,19 @@
         <v>7244.6595</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>949</v>
+      </c>
+      <c r="J39" t="n">
+        <v>948</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1997,19 @@
         <v>7605.9595</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>951</v>
+      </c>
+      <c r="J40" t="n">
+        <v>948</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2041,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>948</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2077,19 @@
         <v>7178.3595</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>945</v>
+      </c>
+      <c r="J42" t="n">
+        <v>948</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2118,19 @@
         <v>7170.8595</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>945</v>
+      </c>
+      <c r="J43" t="n">
+        <v>948</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2159,19 @@
         <v>7370.8595</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>941</v>
+      </c>
+      <c r="J44" t="n">
+        <v>948</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2200,19 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>943</v>
+      </c>
+      <c r="J45" t="n">
+        <v>948</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2241,19 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>948</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>948</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2321,19 @@
         <v>7872.759499999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>947</v>
+      </c>
+      <c r="J48" t="n">
+        <v>948</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>948</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>948</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>948</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>948</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>948</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>948</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>948</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>948</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>948</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2713,17 @@
         <v>8162.7595</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>943</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>948</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2756,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2379,11 +2795,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2417,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>948</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>948</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>948</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>948</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>948</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>948</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>948</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +3103,17 @@
         <v>8303.2698</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>948</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>948</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>948</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>948</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>948</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>948</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2843,15 +3337,17 @@
         <v>9275.6351</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>947</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>948</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,11 +3380,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2923,11 +3419,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2961,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>948</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2994,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>948</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3027,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>948</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3060,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>948</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3093,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>948</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3126,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>948</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3159,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>948</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3192,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>948</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3225,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>948</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3258,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>948</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3291,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>948</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3324,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>948</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3357,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>948</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3390,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>948</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3423,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>948</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3456,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>948</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3489,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>948</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3522,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>948</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3555,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>948</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3588,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>948</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3621,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>948</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3651,13 +4273,19 @@
         <v>10457.0808</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>948</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>1.002383966244726</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3684,7 +4312,7 @@
         <v>10457.0808</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3717,7 +4345,7 @@
         <v>10457.0808</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3981,7 +4609,7 @@
         <v>10739.5808</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4014,7 +4642,7 @@
         <v>10739.5808</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4047,7 +4675,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4080,7 +4708,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4113,7 +4741,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4146,7 +4774,7 @@
         <v>12236.1608</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4179,7 +4807,7 @@
         <v>12226.8608</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4212,7 +4840,7 @@
         <v>12218.5608</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4245,7 +4873,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4278,7 +4906,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4311,7 +4939,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4344,7 +4972,7 @@
         <v>13828.1008</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4377,7 +5005,7 @@
         <v>13828.1008</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4410,7 +5038,7 @@
         <v>13823.8008</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4443,7 +5071,7 @@
         <v>14305.2008</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4476,7 +5104,7 @@
         <v>14296.0008</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4509,7 +5137,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4542,7 +5170,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4575,7 +5203,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4608,7 +5236,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4641,7 +5269,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4674,7 +5302,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4707,7 +5335,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4740,7 +5368,7 @@
         <v>15153.4008</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4773,7 +5401,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4806,7 +5434,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4839,7 +5467,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4872,7 +5500,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4905,7 +5533,7 @@
         <v>15462.8008</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4938,7 +5566,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4971,7 +5599,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5004,7 +5632,7 @@
         <v>15796.6289</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5037,7 +5665,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5070,7 +5698,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5103,7 +5731,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5136,7 +5764,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5169,7 +5797,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5202,7 +5830,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5235,7 +5863,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5268,7 +5896,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5301,7 +5929,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5334,7 +5962,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5367,7 +5995,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5400,7 +6028,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5433,7 +6061,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5466,7 +6094,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5499,7 +6127,7 @@
         <v>15893.5847</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5532,7 +6160,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5565,7 +6193,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5631,7 +6259,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5664,7 +6292,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5697,7 +6325,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5730,7 +6358,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5763,7 +6391,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5796,7 +6424,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5829,7 +6457,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6720,7 +7348,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6819,7 +7447,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6951,7 +7579,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6984,7 +7612,7 @@
         <v>18838.7874</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7017,7 +7645,7 @@
         <v>18845.4874</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7050,7 +7678,7 @@
         <v>18841.4874</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7116,7 +7744,7 @@
         <v>19459.5874</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7149,7 +7777,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7182,7 +7810,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7215,7 +7843,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7248,7 +7876,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7281,7 +7909,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7314,7 +7942,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7347,7 +7975,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7380,7 +8008,7 @@
         <v>19426.7874</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7413,7 +8041,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7446,7 +8074,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7479,7 +8107,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7512,7 +8140,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7545,7 +8173,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7578,7 +8206,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7611,7 +8239,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7644,7 +8272,7 @@
         <v>19976.3874</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7677,7 +8305,7 @@
         <v>19976.3874</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7809,7 +8437,7 @@
         <v>19479.8874</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7875,7 +8503,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7908,7 +8536,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8007,7 +8635,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8997,14 +9625,10 @@
         <v>20141.34469999999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>942</v>
-      </c>
-      <c r="J260" t="n">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9037,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>942</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9076,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>942</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9145,14 +9757,10 @@
         <v>20360.64469999999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>942</v>
-      </c>
-      <c r="J264" t="n">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9182,19 +9790,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>943</v>
-      </c>
-      <c r="J265" t="n">
-        <v>942</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9223,19 +9823,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>942</v>
-      </c>
-      <c r="J266" t="n">
-        <v>942</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9264,19 +9856,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>942</v>
-      </c>
-      <c r="J267" t="n">
-        <v>942</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9305,19 +9889,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>942</v>
-      </c>
-      <c r="J268" t="n">
-        <v>942</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9346,19 +9922,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>942</v>
-      </c>
-      <c r="J269" t="n">
-        <v>942</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9387,19 +9955,11 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>942</v>
-      </c>
-      <c r="J270" t="n">
-        <v>942</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9431,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>942</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9470,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>942</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9509,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>942</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9548,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>942</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9584,19 +10120,11 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>941</v>
-      </c>
-      <c r="J275" t="n">
-        <v>942</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9625,19 +10153,11 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>940.6</v>
-      </c>
-      <c r="J276" t="n">
-        <v>942</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9666,19 +10186,11 @@
         <v>19327.47569999999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>940.6</v>
-      </c>
-      <c r="J277" t="n">
-        <v>942</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9707,19 +10219,11 @@
         <v>19321.67569999999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>939</v>
-      </c>
-      <c r="J278" t="n">
-        <v>942</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9748,19 +10252,11 @@
         <v>19331.97569999999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>938</v>
-      </c>
-      <c r="J279" t="n">
-        <v>942</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9789,19 +10285,11 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>939</v>
-      </c>
-      <c r="J280" t="n">
-        <v>942</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9830,19 +10318,11 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>941</v>
-      </c>
-      <c r="J281" t="n">
-        <v>942</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9871,19 +10351,11 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>941</v>
-      </c>
-      <c r="J282" t="n">
-        <v>942</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9912,19 +10384,11 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>941</v>
-      </c>
-      <c r="J283" t="n">
-        <v>942</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>942</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>942</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>942</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>942</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10112,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>942</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10151,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>942</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10190,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>942</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>942</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10268,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>942</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10307,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>942</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>942</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>942</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>942</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>942</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>942</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>942</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +10948,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>942</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10619,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>942</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>942</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>942</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10733,19 +11077,13 @@
         <v>21256.07569999999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>942</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
-        <v>0.9939384288747346</v>
+        <v>1</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
@@ -11366,7 +11704,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11399,7 +11737,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11432,7 +11770,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11465,7 +11803,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11498,7 +11836,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11531,7 +11869,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11564,7 +11902,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11630,7 +11968,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11663,7 +12001,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11696,7 +12034,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12191,7 +12529,7 @@
         <v>22502.27569999999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12422,7 +12760,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12455,7 +12793,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12488,7 +12826,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12521,7 +12859,7 @@
         <v>22791.67569999999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12554,7 +12892,7 @@
         <v>22810.67569999999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12587,7 +12925,7 @@
         <v>22795.57569999999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12620,7 +12958,7 @@
         <v>23398.57569999999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12851,7 +13189,7 @@
         <v>23381.67569999999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -22949,7 +23287,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22982,7 +23320,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23015,7 +23353,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23048,7 +23386,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23081,7 +23419,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23114,7 +23452,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23147,7 +23485,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23180,7 +23518,7 @@
         <v>36189.6728</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23213,7 +23551,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23246,7 +23584,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23279,7 +23617,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23312,7 +23650,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23345,7 +23683,7 @@
         <v>36175.4728</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25259,7 +25597,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25292,7 +25630,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25325,7 +25663,7 @@
         <v>41064.67279999999</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25358,7 +25696,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25391,7 +25729,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25424,7 +25762,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25457,7 +25795,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25490,7 +25828,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25523,7 +25861,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25556,7 +25894,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25589,7 +25927,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25622,7 +25960,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25655,7 +25993,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25688,7 +26026,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25721,7 +26059,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25754,7 +26092,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25787,7 +26125,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25820,7 +26158,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25853,7 +26191,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25886,7 +26224,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25919,7 +26257,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25952,7 +26290,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25985,7 +26323,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26018,7 +26356,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26051,7 +26389,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26084,7 +26422,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26117,7 +26455,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26150,7 +26488,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26183,7 +26521,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26216,7 +26554,7 @@
         <v>41427.27279999999</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26282,7 +26620,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26315,7 +26653,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26348,7 +26686,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26414,7 +26752,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26447,7 +26785,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26480,7 +26818,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26513,7 +26851,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26546,7 +26884,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26579,7 +26917,7 @@
         <v>42012.07279999999</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26612,7 +26950,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26645,7 +26983,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26678,7 +27016,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26711,7 +27049,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26744,7 +27082,7 @@
         <v>42393.45399999999</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26777,7 +27115,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26810,7 +27148,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26843,7 +27181,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26876,7 +27214,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26909,7 +27247,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26942,7 +27280,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26975,7 +27313,7 @@
         <v>42399.454</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27008,7 +27346,7 @@
         <v>42399.454</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27041,7 +27379,7 @@
         <v>42399.454</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27074,7 +27412,7 @@
         <v>42399.454</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27107,7 +27445,7 @@
         <v>42399.454</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27206,7 +27544,7 @@
         <v>42399.454</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29153,7 +29491,7 @@
         <v>45903.35399999999</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29186,7 +29524,7 @@
         <v>46233.35399999999</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29219,7 +29557,7 @@
         <v>46229.05399999999</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29252,7 +29590,7 @@
         <v>46215.55399999999</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29285,7 +29623,7 @@
         <v>46672.16119999999</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29318,7 +29656,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29351,7 +29689,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29384,7 +29722,7 @@
         <v>46654.26119999999</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29417,7 +29755,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29450,7 +29788,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29483,7 +29821,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29516,7 +29854,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29549,7 +29887,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29582,7 +29920,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29615,7 +29953,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29648,7 +29986,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29681,7 +30019,7 @@
         <v>48277.25399999999</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29714,7 +30052,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29747,7 +30085,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29780,7 +30118,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29813,7 +30151,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29846,7 +30184,7 @@
         <v>47685.55399999999</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29879,7 +30217,7 @@
         <v>47698.95399999999</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29912,7 +30250,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29945,7 +30283,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29978,7 +30316,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30011,7 +30349,7 @@
         <v>48158.85399999999</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30044,7 +30382,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30077,7 +30415,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30110,7 +30448,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30143,7 +30481,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30176,7 +30514,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30209,7 +30547,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30242,7 +30580,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30275,7 +30613,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30308,7 +30646,7 @@
         <v>48230.15399999999</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30341,7 +30679,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30374,7 +30712,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30407,7 +30745,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30440,7 +30778,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30473,7 +30811,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30506,7 +30844,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30539,7 +30877,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30572,7 +30910,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30605,7 +30943,7 @@
         <v>48218.554</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30638,7 +30976,7 @@
         <v>48218.554</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30671,7 +31009,7 @@
         <v>48218.554</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
